--- a/formats/excel/Formats RPSA ANO 13.xlsx
+++ b/formats/excel/Formats RPSA ANO 13.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Github/formats_pmeasyr/formats/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="23715" windowHeight="10800"/>
+    <workbookView xWindow="1460" yWindow="460" windowWidth="27340" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -378,9 +391,6 @@
     <t>Montant total du séjour remboursable pour l'AMC</t>
   </si>
   <si>
-    <t>NOSEJPSY</t>
-  </si>
-  <si>
     <t>N° séquentiel de séjour PSY</t>
   </si>
   <si>
@@ -388,6 +398,9 @@
   </si>
   <si>
     <t>CDEXMOD</t>
+  </si>
+  <si>
+    <t>NOSEQSEJ</t>
   </si>
 </sst>
 </file>
@@ -442,7 +455,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Bureau">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -480,14 +493,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Bureau">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -517,12 +530,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -552,7 +565,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Bureau">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -728,20 +741,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -761,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -781,7 +794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -801,7 +814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -821,7 +834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -841,7 +854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -861,7 +874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -881,7 +894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -901,7 +914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -921,7 +934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -941,7 +954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -961,7 +974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -981,7 +994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1001,7 +1014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1021,7 +1034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1041,7 +1054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1061,7 +1074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1081,7 +1094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1101,12 +1114,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
         <v>120</v>
-      </c>
-      <c r="B19" t="s">
-        <v>121</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -1121,7 +1134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1141,7 +1154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1161,7 +1174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1181,7 +1194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1201,7 +1214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -1221,7 +1234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1241,7 +1254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -1261,7 +1274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -1281,7 +1294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1301,7 +1314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -1321,7 +1334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1341,7 +1354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1361,7 +1374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1381,7 +1394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -1401,7 +1414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -1421,7 +1434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -1441,7 +1454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -1461,7 +1474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -1481,7 +1494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -1501,7 +1514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -1521,7 +1534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -1541,7 +1554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -1561,12 +1574,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1581,7 +1594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -1601,7 +1614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -1621,7 +1634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -1641,7 +1654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -1661,7 +1674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -1681,7 +1694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -1701,7 +1714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -1721,7 +1734,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -1741,7 +1754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -1761,7 +1774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>105</v>
       </c>
@@ -1781,7 +1794,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>107</v>
       </c>
@@ -1801,7 +1814,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -1821,7 +1834,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>111</v>
       </c>
@@ -1841,7 +1854,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>113</v>
       </c>
@@ -1861,7 +1874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>115</v>
       </c>
@@ -1881,7 +1894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -1901,7 +1914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -1932,7 +1945,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1944,7 +1957,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/formats/excel/Formats RPSA ANO 13.xlsx
+++ b/formats/excel/Formats RPSA ANO 13.xlsx
@@ -1,35 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Github/formats_pmeasyr/formats/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="460" windowWidth="27340" windowHeight="17540"/>
+    <workbookView windowWidth="24240" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
   <si>
     <t>nom</t>
   </si>
@@ -154,192 +141,204 @@
     <t xml:space="preserve">N° de séjour </t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>NOSEQSEJ</t>
+  </si>
+  <si>
+    <t>N° séquentiel de séjour PSY</t>
+  </si>
+  <si>
+    <t>DTENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date d'entrée </t>
+  </si>
+  <si>
+    <t>DTSOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date de sortie </t>
+  </si>
+  <si>
+    <t>CRCODEGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « code grand régime » </t>
+  </si>
+  <si>
+    <t>CREXTICM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « code justification d’exonération du ticket modérateur »  </t>
+  </si>
+  <si>
+    <t>CRPRFOJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « code de prise en charge du forfait journalier » </t>
+  </si>
+  <si>
+    <t>CRNATASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « nature d’assurance » </t>
+  </si>
+  <si>
+    <t>CRTYPECO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « type de contrat souscrit auprès d'un organisme complémentaire » </t>
+  </si>
+  <si>
+    <t>CRFACTAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « séjour facturable à l’assurance maladie » </t>
+  </si>
+  <si>
+    <t>CRMOTNOFACT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « motif de la non facturation à l'assurance maladie » </t>
+  </si>
+  <si>
+    <t>CRTOP18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « facturation du 18 euro » </t>
+  </si>
+  <si>
+    <t>CRNBEVEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « nombre de venues de la facture » </t>
+  </si>
+  <si>
+    <t>CRTICMOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « montant à facturer au titre du ticket modérateur» </t>
+  </si>
+  <si>
+    <t>CRFORJOU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « montant à facturer au titre du forfait journalier » </t>
+  </si>
+  <si>
+    <t>CRFACTOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « montant total du séjour remboursé par l’assurance maladie (i.e. hors prestations annexes ») </t>
+  </si>
+  <si>
+    <t>CRMAJPAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « montant lié à la majoration au parcours de soin » </t>
+  </si>
+  <si>
+    <t>CRMTBASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « montant base remboursement » </t>
+  </si>
+  <si>
+    <t>CRTXRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « taux de remboursement » </t>
+  </si>
+  <si>
+    <t>CRPBCMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « Patient bénéficiaire de la CMU » </t>
+  </si>
+  <si>
+    <t>Filler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filler </t>
+  </si>
+  <si>
+    <t>CRDTHOSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « Identifiant anonyme d'hospitalisation » </t>
+  </si>
+  <si>
+    <t>CRRMBAMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « Montant total du séjour remboursable pour l'AMC » </t>
+  </si>
+  <si>
+    <t>CODEGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code grand régime </t>
+  </si>
+  <si>
+    <t>CDEXMOD</t>
+  </si>
+  <si>
+    <t>Code justification d’exonération du ticket modérateur</t>
+  </si>
+  <si>
+    <t>CDPRFOJO</t>
+  </si>
+  <si>
+    <t>Code de prise en charge du forfait journalier</t>
+  </si>
+  <si>
+    <t>NATASS</t>
+  </si>
+  <si>
+    <t>Nature d'assurance</t>
+  </si>
+  <si>
+    <t>TYPECONT</t>
+  </si>
+  <si>
+    <t>Type de contrat souscrit auprès d'un organisme complémentaire</t>
+  </si>
+  <si>
+    <t>FACTAM</t>
+  </si>
+  <si>
+    <t>Séjour facturable à l’assurance maladie</t>
+  </si>
+  <si>
+    <t>MOTNOFACT</t>
+  </si>
+  <si>
+    <t>Motif de la non facturation à l'assurance maladie</t>
+  </si>
+  <si>
+    <t>FACT18E</t>
+  </si>
+  <si>
+    <t>Facturation du 18 euro</t>
+  </si>
+  <si>
+    <t>NBEVEN</t>
+  </si>
+  <si>
+    <t>Nombre de venues de la facture</t>
+  </si>
+  <si>
+    <t>MTFACTMO</t>
+  </si>
+  <si>
+    <t>Montant à facturer au titre du ticket modérateur</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
-    <t>DTENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date d'entrée </t>
-  </si>
-  <si>
-    <t>DTSOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date de sortie </t>
-  </si>
-  <si>
-    <t>CRCODEGR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « code grand régime » </t>
-  </si>
-  <si>
-    <t>CREXTICM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « code justification d’exonération du ticket modérateur »  </t>
-  </si>
-  <si>
-    <t>CRPRFOJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « code de prise en charge du forfait journalier » </t>
-  </si>
-  <si>
-    <t>CRNATASS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « nature d’assurance » </t>
-  </si>
-  <si>
-    <t>CRTYPECO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « type de contrat souscrit auprès d'un organisme complémentaire » </t>
-  </si>
-  <si>
-    <t>CRFACTAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « séjour facturable à l’assurance maladie » </t>
-  </si>
-  <si>
-    <t>CRMOTNOFACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « motif de la non facturation à l'assurance maladie » </t>
-  </si>
-  <si>
-    <t>CRTOP18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « facturation du 18 euro » </t>
-  </si>
-  <si>
-    <t>CRNBEVEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « nombre de venues de la facture » </t>
-  </si>
-  <si>
-    <t>CRTICMOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « montant à facturer au titre du ticket modérateur» </t>
-  </si>
-  <si>
-    <t>CRFORJOU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « montant à facturer au titre du forfait journalier » </t>
-  </si>
-  <si>
-    <t>CRFACTOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « montant total du séjour remboursé par l’assurance maladie (i.e. hors prestations annexes ») </t>
-  </si>
-  <si>
-    <t>CRMAJPAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « montant lié à la majoration au parcours de soin » </t>
-  </si>
-  <si>
-    <t>CRMTBASE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « montant base remboursement » </t>
-  </si>
-  <si>
-    <t>CRTXRM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « taux de remboursement » </t>
-  </si>
-  <si>
-    <t>CRPBCMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « Patient bénéficiaire de la CMU » </t>
-  </si>
-  <si>
-    <t>Filler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filler </t>
-  </si>
-  <si>
-    <t>CRDTHOSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « Identifiant anonyme d'hospitalisation » </t>
-  </si>
-  <si>
-    <t>CRRMBAMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « Montant total du séjour remboursable pour l'AMC » </t>
-  </si>
-  <si>
-    <t>CODEGR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code grand régime </t>
-  </si>
-  <si>
-    <t>CDPRFOJO</t>
-  </si>
-  <si>
-    <t>Code de prise en charge du forfait journalier</t>
-  </si>
-  <si>
-    <t>NATASS</t>
-  </si>
-  <si>
-    <t>Nature d'assurance</t>
-  </si>
-  <si>
-    <t>TYPECONT</t>
-  </si>
-  <si>
-    <t>Type de contrat souscrit auprès d'un organisme complémentaire</t>
-  </si>
-  <si>
-    <t>FACTAM</t>
-  </si>
-  <si>
-    <t>Séjour facturable à l’assurance maladie</t>
-  </si>
-  <si>
-    <t>MOTNOFACT</t>
-  </si>
-  <si>
-    <t>Motif de la non facturation à l'assurance maladie</t>
-  </si>
-  <si>
-    <t>FACT18E</t>
-  </si>
-  <si>
-    <t>Facturation du 18 euro</t>
-  </si>
-  <si>
-    <t>NBEVEN</t>
-  </si>
-  <si>
-    <t>Nombre de venues de la facture</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>MTFACTMO</t>
-  </si>
-  <si>
-    <t>Montant à facturer au titre du ticket modérateur</t>
-  </si>
-  <si>
     <t>MTFORJOU</t>
   </si>
   <si>
@@ -389,42 +388,373 @@
   </si>
   <si>
     <t>Montant total du séjour remboursable pour l'AMC</t>
-  </si>
-  <si>
-    <t>N° séquentiel de séjour PSY</t>
-  </si>
-  <si>
-    <t>Code justification d’exonération du ticket modérateur</t>
-  </si>
-  <si>
-    <t>CDEXMOD</t>
-  </si>
-  <si>
-    <t>NOSEQSEJ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -432,23 +762,307 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -457,7 +1071,7 @@
   <a:themeElements>
     <a:clrScheme name="Bureau">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -495,7 +1109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Bureau">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -530,7 +1144,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -738,23 +1352,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="76.5" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="6.83333333333333" customWidth="1"/>
+    <col min="5" max="5" width="4.16666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -774,7 +1389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -794,7 +1409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -814,7 +1429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -834,7 +1449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -854,7 +1469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -874,7 +1489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -894,7 +1509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -914,7 +1529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -934,7 +1549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -954,7 +1569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -974,7 +1589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -994,7 +1609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1014,7 +1629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1034,7 +1649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1054,7 +1669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1074,7 +1689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1094,7 +1709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1114,12 +1729,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -1134,12 +1749,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -1154,12 +1769,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -1174,12 +1789,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1194,12 +1809,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1214,12 +1829,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1234,12 +1849,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1254,12 +1869,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1274,12 +1889,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1294,12 +1909,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1314,12 +1929,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1334,12 +1949,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1354,12 +1969,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1374,12 +1989,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1394,12 +2009,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1414,12 +2029,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1434,12 +2049,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1454,12 +2069,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1474,12 +2089,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1494,12 +2109,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -1514,12 +2129,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1534,12 +2149,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1554,12 +2169,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -1574,12 +2189,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1594,12 +2209,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1614,12 +2229,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -1634,12 +2249,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -1654,12 +2269,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1674,12 +2289,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1694,12 +2309,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1714,12 +2329,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1731,15 +2346,15 @@
         <v>119</v>
       </c>
       <c r="F49" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C50">
         <v>10</v>
@@ -1751,15 +2366,15 @@
         <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C51">
         <v>10</v>
@@ -1771,15 +2386,15 @@
         <v>139</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C52">
         <v>10</v>
@@ -1791,15 +2406,15 @@
         <v>149</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1811,15 +2426,15 @@
         <v>153</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C54">
         <v>10</v>
@@ -1831,15 +2446,15 @@
         <v>163</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1851,15 +2466,15 @@
         <v>168</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1874,12 +2489,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C57">
         <v>34</v>
@@ -1894,12 +2509,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C58">
         <v>8</v>
@@ -1914,12 +2529,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C59">
         <v>10</v>
@@ -1931,34 +2546,43 @@
         <v>221</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>